--- a/Annotaions_Niklas.xlsx
+++ b/Annotaions_Niklas.xlsx
@@ -3362,7 +3362,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Annotaions_Niklas.xlsx
+++ b/Annotaions_Niklas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{06019F87-F671-4ABD-91FD-96D0699E7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EB3A06-4507-47D9-8E23-191F0A26BD0F}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="8_{06019F87-F671-4ABD-91FD-96D0699E7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE22DDE-E49A-4F10-94E6-4E19848B2A13}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{E34BF7FD-9298-4ECF-A92E-BE5C569B030F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E34BF7FD-9298-4ECF-A92E-BE5C569B030F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="284">
   <si>
     <t>Dehumanizing:</t>
   </si>
@@ -686,15 +686,6 @@
   </si>
   <si>
     <t>Non-atheists</t>
-  </si>
-  <si>
-    <t>Us</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Them</t>
   </si>
   <si>
     <t>American Men</t>
@@ -3361,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDEEB3-4258-447B-8821-72BA8329D126}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3378,19 +3369,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>279</v>
-      </c>
-      <c r="D1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -4021,13 +4012,13 @@
         <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="57" x14ac:dyDescent="0.45">
@@ -4041,13 +4032,13 @@
         <v>138</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
@@ -4061,10 +4052,10 @@
         <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
         <v>169</v>
@@ -4081,10 +4072,10 @@
         <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
         <v>154</v>
@@ -4104,7 +4095,7 @@
         <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
         <v>147</v>
@@ -4124,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
         <v>145</v>
@@ -4144,7 +4135,7 @@
         <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
         <v>147</v>
@@ -4164,7 +4155,7 @@
         <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F40" t="s">
         <v>154</v>
@@ -4181,10 +4172,10 @@
         <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
         <v>147</v>
@@ -4221,13 +4212,13 @@
         <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -4241,13 +4232,13 @@
         <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -4281,13 +4272,13 @@
         <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -4304,7 +4295,7 @@
         <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
         <v>145</v>
@@ -4341,13 +4332,13 @@
         <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
@@ -4361,13 +4352,13 @@
         <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
@@ -4381,13 +4372,13 @@
         <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
@@ -4404,10 +4395,10 @@
         <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -4421,10 +4412,10 @@
         <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s">
         <v>203</v>
@@ -4441,13 +4432,13 @@
         <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -4464,7 +4455,7 @@
         <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F55" t="s">
         <v>145</v>
@@ -4501,13 +4492,13 @@
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
@@ -4524,7 +4515,7 @@
         <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
         <v>147</v>
@@ -4541,10 +4532,10 @@
         <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
         <v>193</v>
@@ -4661,10 +4652,10 @@
         <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F65" t="s">
         <v>147</v>
@@ -4681,10 +4672,10 @@
         <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
         <v>193</v>
@@ -4704,7 +4695,7 @@
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
         <v>154</v>
@@ -4721,10 +4712,10 @@
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
         <v>169</v>
@@ -4744,7 +4735,7 @@
         <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
         <v>145</v>
@@ -4761,10 +4752,10 @@
         <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F70" t="s">
         <v>169</v>
@@ -4801,10 +4792,10 @@
         <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F72" t="s">
         <v>193</v>
@@ -4824,10 +4815,10 @@
         <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F73" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
@@ -4841,10 +4832,10 @@
         <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F74" t="s">
         <v>169</v>
@@ -4864,7 +4855,7 @@
         <v>141</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
         <v>145</v>
@@ -4884,7 +4875,7 @@
         <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
         <v>193</v>
@@ -4901,10 +4892,10 @@
         <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F77" t="s">
         <v>203</v>
@@ -4921,13 +4912,13 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -4935,19 +4926,19 @@
         <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C79" t="s">
         <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -4964,7 +4955,7 @@
         <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F80" t="s">
         <v>147</v>
@@ -5001,10 +4992,10 @@
         <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
         <v>169</v>
@@ -5024,7 +5015,7 @@
         <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
         <v>169</v>
@@ -5041,10 +5032,10 @@
         <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
         <v>154</v>
@@ -5061,13 +5052,13 @@
         <v>128</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -5081,13 +5072,13 @@
         <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -5104,7 +5095,7 @@
         <v>196</v>
       </c>
       <c r="E87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
         <v>152</v>
@@ -5121,10 +5112,10 @@
         <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
         <v>193</v>
@@ -5141,10 +5132,10 @@
         <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E89" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F89" t="s">
         <v>147</v>
@@ -5164,7 +5155,7 @@
         <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F90" t="s">
         <v>147</v>
@@ -5204,7 +5195,7 @@
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
         <v>145</v>
@@ -5261,10 +5252,10 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
         <v>169</v>
@@ -5284,7 +5275,7 @@
         <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F96" t="s">
         <v>152</v>
@@ -5301,10 +5292,10 @@
         <v>128</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F97" t="s">
         <v>152</v>
@@ -5321,13 +5312,13 @@
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -5341,13 +5332,13 @@
         <v>128</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -5361,13 +5352,13 @@
         <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -5381,13 +5372,13 @@
         <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
         <v>140</v>
       </c>
       <c r="F101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5412,13 +5403,13 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>283</v>
       </c>
-      <c r="B3" t="s">
-        <v>286</v>
-      </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5467,7 +5458,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5500,7 +5491,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5516,7 +5507,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>99</v>

--- a/Annotaions_Niklas.xlsx
+++ b/Annotaions_Niklas.xlsx
@@ -989,6 +989,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3352,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDEEB3-4258-447B-8821-72BA8329D126}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Annotaions_Niklas.xlsx
+++ b/Annotaions_Niklas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{06019F87-F671-4ABD-91FD-96D0699E7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE22DDE-E49A-4F10-94E6-4E19848B2A13}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{06019F87-F671-4ABD-91FD-96D0699E7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB8DA74-08A0-40E5-B849-F45B9F9EE9CE}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E34BF7FD-9298-4ECF-A92E-BE5C569B030F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{E34BF7FD-9298-4ECF-A92E-BE5C569B030F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -935,12 +935,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -955,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -974,6 +986,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3356,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDEEB3-4258-447B-8821-72BA8329D126}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4046,7 +4066,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B35" t="s">
@@ -4146,7 +4166,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B40" t="s">
@@ -4306,7 +4326,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B48" t="s">
@@ -4346,7 +4366,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B50" t="s">
@@ -4526,7 +4546,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B59" t="s">
@@ -4586,14 +4606,14 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
         <v>199</v>
@@ -4606,14 +4626,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="A63" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>141</v>
@@ -4626,14 +4646,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
         <v>196</v>
@@ -4646,7 +4666,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="A65" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B65" t="s">
@@ -4706,7 +4726,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B68" t="s">
